--- a/src/utils/REGLA.xlsx
+++ b/src/utils/REGLA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-ccd\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63AC74-3DA4-4917-A6CF-D50473B38AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEAE4A4-D934-4991-B527-6FD012D702EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO_VALIDOS" sheetId="3" r:id="rId1"/>
     <sheet name="TEXTO" sheetId="2" r:id="rId2"/>
+    <sheet name="TEXTO_APOYO" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>TEXTO_1</t>
   </si>
@@ -137,6 +138,18 @@
   </si>
   <si>
     <t>AGENTE TELMEX  / RED</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Text,"Estimado Socio: Le informamos que su analista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Quien quedara a cargo de la cuenta comercial sera el/la analista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, se encuentra de vacaciones hasta el dia </t>
   </si>
 </sst>
 </file>
@@ -697,4 +710,40 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DACCAB-8EBB-4EB1-A7E9-E20FEC39482D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="66.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/utils/REGLA.xlsx
+++ b/src/utils/REGLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-ccd\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEAE4A4-D934-4991-B527-6FD012D702EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3BAA2-8E70-4D54-A246-F5AA517E4823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO_VALIDOS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>TEXTO_1</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">, se encuentra de vacaciones hasta el dia </t>
+  </si>
+  <si>
+    <t>. Gracias por su comprension. Creditos y Cobranzas Distribuidores le desea un excelente dia"</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -714,13 +717,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DACCAB-8EBB-4EB1-A7E9-E20FEC39482D}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -743,6 +746,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/utils/REGLA.xlsx
+++ b/src/utils/REGLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-ccd\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3BAA2-8E70-4D54-A246-F5AA517E4823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D40015-4E63-4BD4-9606-E9D0A2A9FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO_VALIDOS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>TEXTO_1</t>
   </si>
@@ -47,45 +47,12 @@
     <t>DEUDA VENCIDA</t>
   </si>
   <si>
-    <t>, le informamos que su Linea Disponible en RECAUDACION es S/</t>
-  </si>
-  <si>
-    <t>, puede realizar su pedido hasta este importe. Creditos y Cobranzas le desea un excelente dia."</t>
-  </si>
-  <si>
-    <t>, le informamos que el dia de hoy cuenta con sobregiro en RECAUDACION de S/</t>
-  </si>
-  <si>
-    <t>. Para mayor informacion contacte a su analista de C&amp;CD."</t>
-  </si>
-  <si>
-    <t>, le informamos que el día de hoy no cuenta con Linea Disponible en RECAUDACION. Para mayor informacion contacte a su analista de C&amp;CD."</t>
-  </si>
-  <si>
-    <t>, le informamos que su Linea Disponible de Equipos de hoy es S/</t>
-  </si>
-  <si>
-    <t>, puede realizar pedidos de equipos valorizados a precio prepago hasta este importe, sujeto a evaluacion crediticia. Creditos y Cobranzas le desea un excelente dia."</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>, le informamos que el dia de hoy cuenta con sobregiro en Linea Disponible para compra de Equipos de S/</t>
-  </si>
-  <si>
-    <t>. Para mas informacion contacte a su analista. Creditos y Cobranzas le desea un excelente dia."</t>
-  </si>
-  <si>
-    <t>, le informamos que el dia de hoy no cuenta con Linea Disponible para compra de Equipos. Para mas informacion contacte a su analista. Creditos y Cobranzas le desea un excelente dia."</t>
-  </si>
-  <si>
     <t>,Text,"Estimado Socio: Le informamos que tiene una deuda vencida de S/</t>
   </si>
   <si>
-    <t>, puede pagarla desde la Web y App de bancos principales. Mayor informacion en el Portal de Canales: https://portaldistribuidores.claro.com.pe. Creditos y Cobranzas Distribuidores."</t>
-  </si>
-  <si>
     <t>REC DISPONIBLE</t>
   </si>
   <si>
@@ -152,7 +119,37 @@
     <t xml:space="preserve">, se encuentra de vacaciones hasta el dia </t>
   </si>
   <si>
-    <t>. Gracias por su comprension. Creditos y Cobranzas Distribuidores le desea un excelente dia"</t>
+    <t>, puede realizar pedidos de equipos valorizados a precio prepago hasta este importe, sujeto a evaluacion crediticia. C&amp;CD le desea un excelente dia."</t>
+  </si>
+  <si>
+    <t>. Para mas informacion contacte a su analista de C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, puede pagarla desde la Web y App de bancos principales. Mayor informacion en el Portal de Canales: https://portaldistribuidores.claro.com.pe. C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy su LINEA DISPONIBLE en RECAUDACION es S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy no cuenta con LINEA DISPONIBLE en RECAUDACION. Para mas informacion contacte a su analista de C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy tiene SOBREGIRO en su LINEA DISPONIBLE en RECAUDACION de S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy su LINEA DISPONIBLE para compra de EQUIPOS es S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy tiene SOBREGIRO en su LINEA DISPONIBLE para compra de EQUIPOS de S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy no cuenta con LINEA DISPONIBLE para compra de EQUIPOS. Para mas informacion contacte a su analista de C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, puede realizar pedidos hasta este importe. C&amp;CD le desea un excelente dia."</t>
+  </si>
+  <si>
+    <t>. Gracias por su comprension. C&amp;CD le desea un excelente dia."</t>
   </si>
 </sst>
 </file>
@@ -510,71 +507,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>35</v>
+      <c r="A12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -587,14 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -613,86 +610,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DACCAB-8EBB-4EB1-A7E9-E20FEC39482D}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -728,27 +725,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/REGLA.xlsx
+++ b/src/utils/REGLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-ccd\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D40015-4E63-4BD4-9606-E9D0A2A9FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA16AC-18BE-4D46-9C8C-F54676F282D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,85 +71,85 @@
     <t>EQUIPOS SIN LINEA</t>
   </si>
   <si>
+    <t>PVA</t>
+  </si>
+  <si>
+    <t>TARJETERO</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>RECARGA FFVV</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CROSSBORDER</t>
+  </si>
+  <si>
+    <t>CDR</t>
+  </si>
+  <si>
+    <t>CACE</t>
+  </si>
+  <si>
+    <t>AGENTE TELMEX</t>
+  </si>
+  <si>
+    <t>DAC RURAL</t>
+  </si>
+  <si>
+    <t>AGENTE TELMEX  / RED</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Text,"Estimado Socio: Le informamos que su analista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Quien quedara a cargo de la cuenta comercial sera el/la analista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, se encuentra de vacaciones hasta el dia </t>
+  </si>
+  <si>
+    <t>, puede realizar pedidos de equipos valorizados a precio prepago hasta este importe, sujeto a evaluacion crediticia. C&amp;CD le desea un excelente dia."</t>
+  </si>
+  <si>
+    <t>. Para mas informacion contacte a su analista de C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, puede pagarla desde la Web y App de bancos principales. Mayor informacion en el Portal de Canales: https://portaldistribuidores.claro.com.pe. C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy su LINEA DISPONIBLE en RECAUDACION es S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy no cuenta con LINEA DISPONIBLE en RECAUDACION. Para mas informacion contacte a su analista de C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy tiene SOBREGIRO en su LINEA DISPONIBLE en RECAUDACION de S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy su LINEA DISPONIBLE para compra de EQUIPOS es S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy tiene SOBREGIRO en su LINEA DISPONIBLE para compra de EQUIPOS de S/</t>
+  </si>
+  <si>
+    <t>, le informamos que hoy no cuenta con LINEA DISPONIBLE para compra de EQUIPOS. Para mas informacion contacte a su analista de C&amp;CD."</t>
+  </si>
+  <si>
+    <t>, puede realizar pedidos hasta este importe. C&amp;CD le desea un excelente dia."</t>
+  </si>
+  <si>
+    <t>. Gracias por su comprension. C&amp;CD le desea un excelente dia."</t>
+  </si>
+  <si>
     <t>TIPOS_NO_VALIDOS</t>
-  </si>
-  <si>
-    <t>PVA</t>
-  </si>
-  <si>
-    <t>TARJETERO</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>RECARGA FFVV</t>
-  </si>
-  <si>
-    <t>PROVEEDOR</t>
-  </si>
-  <si>
-    <t>CROSSBORDER</t>
-  </si>
-  <si>
-    <t>CDR</t>
-  </si>
-  <si>
-    <t>CACE</t>
-  </si>
-  <si>
-    <t>AGENTE TELMEX</t>
-  </si>
-  <si>
-    <t>DAC RURAL</t>
-  </si>
-  <si>
-    <t>AGENTE TELMEX  / RED</t>
-  </si>
-  <si>
-    <t>TEXTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Text,"Estimado Socio: Le informamos que su analista </t>
-  </si>
-  <si>
-    <t xml:space="preserve">. Quien quedara a cargo de la cuenta comercial sera el/la analista </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, se encuentra de vacaciones hasta el dia </t>
-  </si>
-  <si>
-    <t>, puede realizar pedidos de equipos valorizados a precio prepago hasta este importe, sujeto a evaluacion crediticia. C&amp;CD le desea un excelente dia."</t>
-  </si>
-  <si>
-    <t>. Para mas informacion contacte a su analista de C&amp;CD."</t>
-  </si>
-  <si>
-    <t>, puede pagarla desde la Web y App de bancos principales. Mayor informacion en el Portal de Canales: https://portaldistribuidores.claro.com.pe. C&amp;CD."</t>
-  </si>
-  <si>
-    <t>, le informamos que hoy su LINEA DISPONIBLE en RECAUDACION es S/</t>
-  </si>
-  <si>
-    <t>, le informamos que hoy no cuenta con LINEA DISPONIBLE en RECAUDACION. Para mas informacion contacte a su analista de C&amp;CD."</t>
-  </si>
-  <si>
-    <t>, le informamos que hoy tiene SOBREGIRO en su LINEA DISPONIBLE en RECAUDACION de S/</t>
-  </si>
-  <si>
-    <t>, le informamos que hoy su LINEA DISPONIBLE para compra de EQUIPOS es S/</t>
-  </si>
-  <si>
-    <t>, le informamos que hoy tiene SOBREGIRO en su LINEA DISPONIBLE para compra de EQUIPOS de S/</t>
-  </si>
-  <si>
-    <t>, le informamos que hoy no cuenta con LINEA DISPONIBLE para compra de EQUIPOS. Para mas informacion contacte a su analista de C&amp;CD."</t>
-  </si>
-  <si>
-    <t>, puede realizar pedidos hasta este importe. C&amp;CD le desea un excelente dia."</t>
-  </si>
-  <si>
-    <t>. Gracias por su comprension. C&amp;CD le desea un excelente dia."</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -516,62 +518,62 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -630,10 +632,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -644,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -658,10 +660,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -672,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -686,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -700,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -725,27 +727,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
